--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>中村竜誠</t>
     <rPh sb="0" eb="2">
@@ -32,6 +32,16 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萬翼</t>
+    <rPh sb="0" eb="1">
+      <t>ヨロズ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツバサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -363,9 +373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -374,6 +386,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,24 +24,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>中村竜誠</t>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>リュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>萬翼</t>
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害情報の検索</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページへ移動</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページへ移動</t>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害または、キーワードで検索</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すとマイページへ遷移</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すとトップページへ遷移</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通機能</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般ユーザ機能</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントの管理</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害情報の投稿</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿の削除</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ機能</t>
     <rPh sb="0" eb="1">
-      <t>ヨロズ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツバサ</t>
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名、アカウントID,パスワード、電話番号を入力しアカウント作成</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント情報の修正や、追加などを行う</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字、画像、動画などを投稿する</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容を削除する</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザから機能修正依頼や不正アカウントの対処要求などを受け付ける</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿をタグごとにまとめたタイムラインを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -67,15 +301,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -83,15 +323,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,26 +802,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="4.8984375" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="8">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="画面遷移図" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -477,9 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -507,9 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,6 +516,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,6 +538,1338 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3855720" y="236220"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アカウント登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="1348740"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン　画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="381000"/>
+          <a:ext cx="769620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録失敗</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2034540" y="1478280"/>
+          <a:ext cx="1043940" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン失敗</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="2506980"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2156460" y="3726180"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>投稿画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3840480" y="3718560"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マイページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5608320" y="3718560"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>各災害　ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="4853940"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>利用規約</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="4853940"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アカウント管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593080" y="4846320"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ガイドライン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4354830" y="807720"/>
+          <a:ext cx="7620" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4354830" y="1920240"/>
+          <a:ext cx="0" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4347210" y="3078480"/>
+          <a:ext cx="7620" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>651510</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2663190" y="3078480"/>
+          <a:ext cx="1691640" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4354830" y="3078480"/>
+          <a:ext cx="1760220" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2640330" y="4290060"/>
+          <a:ext cx="1706880" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4331970" y="4290060"/>
+          <a:ext cx="15240" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4347210" y="4290060"/>
+          <a:ext cx="1752600" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13254</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445606</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>221642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="U ターン矢印 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3439935" y="320371"/>
+          <a:ext cx="284590" cy="432352"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 11510"/>
+            <a:gd name="adj3" fmla="val 19782"/>
+            <a:gd name="adj4" fmla="val 0"/>
+            <a:gd name="adj5" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>452231</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>162007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="U ターン矢印 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3446560" y="1403736"/>
+          <a:ext cx="284590" cy="432352"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 11510"/>
+            <a:gd name="adj3" fmla="val 19782"/>
+            <a:gd name="adj4" fmla="val 0"/>
+            <a:gd name="adj5" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -816,139 +2149,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>3</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>6</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -962,4 +2295,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -544,13 +544,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -613,13 +613,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -682,13 +682,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
@@ -751,13 +751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -820,13 +820,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
@@ -889,13 +889,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
@@ -958,13 +958,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -1027,13 +1027,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -1096,13 +1096,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -1165,13 +1165,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -1234,13 +1234,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -1303,13 +1303,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>339090</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
@@ -1356,13 +1356,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
@@ -1409,13 +1409,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -1462,13 +1462,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>651510</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
@@ -1515,13 +1515,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>80010</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -1568,13 +1568,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
@@ -1621,13 +1621,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>308610</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
@@ -1674,13 +1674,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>64770</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -1727,13 +1727,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>13254</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>445606</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>221642</xdr:rowOff>
@@ -1799,13 +1799,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>106017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>452231</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>162007</xdr:rowOff>
@@ -2138,7 +2138,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2302,13 +2302,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -277,6 +277,16 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.画面遷移図</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>センイズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -546,13 +556,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -615,13 +625,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -684,13 +694,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -753,13 +763,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -822,13 +832,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -891,13 +901,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -960,13 +970,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1029,13 +1039,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1098,13 +1108,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1167,13 +1177,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1236,13 +1246,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1303,439 +1313,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4354830" y="807720"/>
-          <a:ext cx="7620" cy="541020"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4354830" y="1920240"/>
-          <a:ext cx="0" cy="586740"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4347210" y="3078480"/>
-          <a:ext cx="7620" cy="640080"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>651510</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2663190" y="3078480"/>
-          <a:ext cx="1691640" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4354830" y="3078480"/>
-          <a:ext cx="1760220" cy="640080"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2640330" y="4290060"/>
-          <a:ext cx="1706880" cy="563880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>308610</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4331970" y="4290060"/>
-          <a:ext cx="15240" cy="563880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4347210" y="4290060"/>
-          <a:ext cx="1752600" cy="556260"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>13254</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>445606</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>221642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1801,13 +1387,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>452231</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>162007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1867,6 +1453,422 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2339732" y="1261359"/>
+          <a:ext cx="7620" cy="539596"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339732" y="2370319"/>
+          <a:ext cx="0" cy="585315"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>650941</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="650941" y="3524998"/>
+          <a:ext cx="1688791" cy="645563"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2332112" y="3524998"/>
+          <a:ext cx="7620" cy="637943"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339732" y="3524998"/>
+          <a:ext cx="1757371" cy="637943"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628081</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="628081" y="4733017"/>
+          <a:ext cx="1704031" cy="561744"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2316872" y="4733017"/>
+          <a:ext cx="15240" cy="561744"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>65340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2332112" y="4733017"/>
+          <a:ext cx="1749751" cy="554124"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2301,12 +2303,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -108,9 +109,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共通機能</t>
+    <t>各ページ共通機能</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ページ機能</t>
     <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録機能</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>キノウ</t>
@@ -118,175 +142,503 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一般ユーザ機能</t>
+    <t>アカウントID、アカウント名、メールアドレス、パスワード、生年月日、電話番号</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
     <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録機能で登録したアカウント情報と入力された値を比較し真だった場合ログイン成功とする。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>card機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルーセル機能</t>
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント作成</t>
+    <t>カルーセルに注目トピックとしてみてもらいたい記事の画像とリンクを貼る</t>
+    <rPh sb="6" eb="8">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索機能</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーに追加されている検索バーにキーワードを入力することで自分が知りたい情報をピンポイントで検索できる</t>
     <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウントの管理</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>災害情報の投稿</t>
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿機能</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ内に設置されている投稿ボタンを押すことで投稿できる（投稿文、画像、動画、タグ）</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各災害タイムライン</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容表示エリア</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cardに紐づけられているタグに一致する災害タイムラインに画面を遷移する</t>
+    <rPh sb="5" eb="6">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグで分別された投稿を投稿時間で降順にして表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ブンベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害ページに指定されているタグで（投稿文、画像、動画）を投稿する</t>
     <rPh sb="0" eb="2">
       <t>サイガイ</t>
     </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
     <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページタブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去投稿、画像一覧、アカウント管理、利用規約、ガイドラインに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画像表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紹介文表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンを設定できる</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介文などを設定できる</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント管理画面</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録情報修正</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>ジョウホウ</t>
     </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した内容を修正する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除機能</t>
     <rPh sb="5" eb="7">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿の削除</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>問い合わせ機能</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="7" eb="9">
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイムライン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名、アカウントID,パスワード、電話番号を入力しアカウント作成</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント情報の修正や、追加などを行う</t>
+    <t>アカウント情報をデータベース上から削除する</t>
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
     </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用規約画面</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用規約を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイドライン画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイドライン表示機能</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字、画像、動画などを投稿する</t>
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規約表示機能</t>
     <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿内容を削除する</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
+      <t>キヤク</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザから機能修正依頼や不正アカウントの対処要求などを受け付ける</t>
-    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>キノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイドラインを表示する</t>
     <rPh sb="7" eb="9">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>タイショ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿をタグごとにまとめたタイムラインを表示する</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.画面遷移図</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>センイズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -326,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -478,13 +830,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +970,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,13 +1048,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -625,13 +1117,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -694,13 +1186,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -763,13 +1255,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -832,13 +1324,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -901,13 +1393,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -970,13 +1462,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1039,13 +1531,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1108,13 +1600,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1177,13 +1669,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1246,13 +1738,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1313,15 +1805,439 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4354830" y="807720"/>
+          <a:ext cx="7620" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4354830" y="1920240"/>
+          <a:ext cx="0" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4347210" y="3078480"/>
+          <a:ext cx="7620" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>651510</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2663190" y="3078480"/>
+          <a:ext cx="1691640" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4354830" y="3078480"/>
+          <a:ext cx="1760220" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2640330" y="4290060"/>
+          <a:ext cx="1706880" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4331970" y="4290060"/>
+          <a:ext cx="15240" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4347210" y="4290060"/>
+          <a:ext cx="1752600" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>13254</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>445606</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>221642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1387,13 +2303,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>106017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>452231</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>162007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1453,422 +2369,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2339732" y="1261359"/>
-          <a:ext cx="7620" cy="539596"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2339732" y="2370319"/>
-          <a:ext cx="0" cy="585315"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>650941</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="650941" y="3524998"/>
-          <a:ext cx="1688791" cy="645563"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2332112" y="3524998"/>
-          <a:ext cx="7620" cy="637943"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>80580</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2339732" y="3524998"/>
-          <a:ext cx="1757371" cy="637943"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>628081</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="628081" y="4733017"/>
-          <a:ext cx="1704031" cy="561744"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>308610</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線コネクタ 41"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2316872" y="4733017"/>
-          <a:ext cx="15240" cy="561744"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>65340</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線コネクタ 44"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2332112" y="4733017"/>
-          <a:ext cx="1749751" cy="554124"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2137,32 +2637,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="4.8984375" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -2207,91 +2707,311 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="2"/>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="B21" s="18">
+        <v>3</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B11" s="5">
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="7">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C31" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B33" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="5">
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="5">
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="5">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C37" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B15" s="5">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="7">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>22</v>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="7">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C42" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C47" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="27">
+        <v>1</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2303,18 +3023,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1801,430 +1800,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4354830" y="807720"/>
-          <a:ext cx="7620" cy="541020"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4354830" y="1920240"/>
-          <a:ext cx="0" cy="586740"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4347210" y="3078480"/>
-          <a:ext cx="7620" cy="640080"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>651510</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2663190" y="3078480"/>
-          <a:ext cx="1691640" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4354830" y="3078480"/>
-          <a:ext cx="1760220" cy="640080"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2640330" y="4290060"/>
-          <a:ext cx="1706880" cy="563880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>308610</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4331970" y="4290060"/>
-          <a:ext cx="15240" cy="563880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4347210" y="4290060"/>
-          <a:ext cx="1752600" cy="556260"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2369,6 +1944,422 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331471</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339091</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2339175" y="817659"/>
+          <a:ext cx="7620" cy="547646"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331471</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331471</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339175" y="1946744"/>
+          <a:ext cx="0" cy="593366"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>650848</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331471</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="650848" y="3121550"/>
+          <a:ext cx="1688327" cy="657639"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331471</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2331555" y="3121550"/>
+          <a:ext cx="7620" cy="650019"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331471</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80673</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339175" y="3121550"/>
+          <a:ext cx="1756907" cy="650019"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>627988</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="627988" y="4349695"/>
+          <a:ext cx="1703567" cy="573819"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308611</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2316315" y="4349695"/>
+          <a:ext cx="15240" cy="573819"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>65433</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2331555" y="4349695"/>
+          <a:ext cx="1749287" cy="566199"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2639,7 +2630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -3001,17 +2992,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3023,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="画面遷移図" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
+    <sheet name="ER図" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -640,13 +642,229 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿マスタ</t>
+  </si>
+  <si>
+    <t>タグマスタ</t>
+  </si>
+  <si>
+    <t>投稿タグマスタ</t>
+  </si>
+  <si>
+    <t>アカウントID</t>
+  </si>
+  <si>
+    <t>投稿ID</t>
+  </si>
+  <si>
+    <t>タグID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>アカウント名</t>
+  </si>
+  <si>
+    <t>投稿内容</t>
+  </si>
+  <si>
+    <t>タグ名</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>生年月日</t>
+  </si>
+  <si>
+    <t>投稿場所</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>ER図</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+  </si>
+  <si>
+    <t>作成会社</t>
+  </si>
+  <si>
+    <t>担当者</t>
+  </si>
+  <si>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>物理名</t>
+  </si>
+  <si>
+    <t>種別</t>
+  </si>
+  <si>
+    <t>アカウントマスタ</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <t>型/別名</t>
+  </si>
+  <si>
+    <t>長さ</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>定義内容</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ユーザー識別　ユニーク制約</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>各種アドレス可</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>8桁以上16桁未満　英字大文字あり、英数値混同
+null制約</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>各キャリア対応</t>
+  </si>
+  <si>
+    <t>情報保持</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>null許容　値が残っている間はログイン状態保持</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>update_at</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>投稿識別　</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>200字以内</t>
+  </si>
+  <si>
+    <t>acount_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>投稿場所は平文で保存</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>タグ識別</t>
+  </si>
+  <si>
+    <t>ユニーク制約</t>
+  </si>
+  <si>
+    <t>post_tags</t>
+  </si>
+  <si>
+    <t>タグの紐づけを識別するID</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>タグがつけられた記事のID</t>
+  </si>
+  <si>
+    <t>tags_id</t>
+  </si>
+  <si>
+    <t>記事につけられたタグのID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,8 +880,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +911,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +1183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1279,90 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,13 +1387,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1116,13 +1456,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1185,13 +1525,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1254,13 +1594,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1323,13 +1663,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1392,13 +1732,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1461,13 +1801,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1530,13 +1870,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1599,13 +1939,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1668,13 +2008,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1737,13 +2077,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1806,13 +2146,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>13254</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>445606</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>221642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1878,13 +2218,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>452231</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>162007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1950,13 +2290,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>339091</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2002,13 +2342,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2054,13 +2394,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>650848</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2106,13 +2446,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2158,13 +2498,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>80673</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2210,13 +2550,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>627988</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2262,13 +2602,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>308611</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2314,13 +2654,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>65433</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2360,6 +2700,66 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>667476</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="https://lh5.googleusercontent.com/nVdx0fSs7933cbW7iVFN9uBCOIGokLsapKw3ewPO58bbc28D_1JUTz1Yxfun2p4EoFo0tDgqfISlc4KgOPg98BO1j7YuH-YgfyNV1wYxsyWn6bHKgPMSFtuNIItD-rgTc-DhHER0RQ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="739140"/>
+          <a:ext cx="6031956" cy="5082540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2631,7 +3031,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2992,17 +3392,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3012,14 +3412,1078 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="54">
+        <v>1</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="36">
+        <v>256</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="54">
+        <v>2</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="36">
+        <v>256</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="54">
+        <v>3</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="36">
+        <v>256</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="54">
+        <v>4</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="36">
+        <v>256</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="54">
+        <v>5</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="54">
+        <v>6</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="36">
+        <v>256</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="54">
+        <v>7</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="36">
+        <v>256</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="54">
+        <v>8</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="56">
+        <v>9</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="54">
+        <v>1</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="36">
+        <v>256</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="54">
+        <v>2</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="36">
+        <v>256</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="54">
+        <v>3</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="36">
+        <v>256</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="54">
+        <v>4</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="36">
+        <v>256</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="54">
+        <v>5</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="56">
+        <v>6</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="47"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="50"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="54">
+        <v>1</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="36">
+        <v>256</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="54">
+        <v>2</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="36">
+        <v>256</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="54">
+        <v>3</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33"/>
+      <c r="B39" s="56">
+        <v>4</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="47"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33"/>
+      <c r="B43" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="50"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="54">
+        <v>1</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="36">
+        <v>256</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="54">
+        <v>2</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="36">
+        <v>256</v>
+      </c>
+      <c r="G47" s="35"/>
+      <c r="H47" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="54">
+        <v>3</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="36">
+        <v>256</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="54">
+        <v>4</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33"/>
+      <c r="B50" s="56">
+        <v>5</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
-    <sheet name="ER図" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="機能一覧" sheetId="1" r:id="rId2"/>
+    <sheet name="テーブル定義" sheetId="5" r:id="rId3"/>
+    <sheet name="画面遷移図" sheetId="3" r:id="rId4"/>
+    <sheet name="ER図" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$D$49</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -430,16 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能一覧</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マイページ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -858,13 +852,34 @@
   </si>
   <si>
     <t>記事につけられたタグのID</t>
+  </si>
+  <si>
+    <t>設計書</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム７</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,18 +902,38 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1183,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,26 +1309,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1301,68 +1390,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3028,6 +3075,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:I15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="10" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.45">
+      <c r="A15" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A15:I15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3041,19 +3135,19 @@
     <col min="4" max="4" width="37.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -3098,10 +3192,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="47"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
@@ -3124,10 +3218,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
@@ -3150,10 +3244,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
@@ -3209,10 +3303,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
@@ -3245,19 +3339,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:4" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A29" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C31" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C31" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="30"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
@@ -3273,10 +3367,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
@@ -3284,10 +3378,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3295,17 +3389,17 @@
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C37" s="47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C37" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="30"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
@@ -3321,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3332,17 +3426,17 @@
         <v>2</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="9" t="s">
+    </row>
+    <row r="42" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C42" s="47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C42" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="30"/>
+      <c r="D42" s="47"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
@@ -3358,17 +3452,17 @@
         <v>1</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C47" s="47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="30"/>
+      <c r="D47" s="47"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48" s="24"/>
@@ -3384,1019 +3478,25 @@
         <v>1</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="54">
-        <v>1</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="36">
-        <v>256</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="54">
-        <v>2</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="36">
-        <v>256</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="54">
-        <v>3</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="36">
-        <v>256</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="54">
-        <v>4</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="36">
-        <v>256</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="54">
-        <v>5</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="54">
-        <v>6</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="36">
-        <v>256</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="54">
-        <v>7</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="36">
-        <v>256</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="54">
-        <v>8</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="56">
-        <v>9</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="54">
-        <v>1</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="36">
-        <v>256</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="54">
-        <v>2</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="36">
-        <v>256</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="54">
-        <v>3</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="36">
-        <v>256</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="54">
-        <v>4</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="36">
-        <v>256</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="54">
-        <v>5</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="56">
-        <v>6</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="34"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="34"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="34"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="54">
-        <v>1</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="36">
-        <v>256</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="34"/>
-    </row>
-    <row r="37" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="54">
-        <v>2</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="36">
-        <v>256</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="54">
-        <v>3</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="56">
-        <v>4</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="47"/>
-      <c r="I42" s="34"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="34"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="34"/>
-    </row>
-    <row r="46" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="54">
-        <v>1</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="36">
-        <v>256</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="I46" s="34"/>
-    </row>
-    <row r="47" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="54">
-        <v>2</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="36">
-        <v>256</v>
-      </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="34"/>
-    </row>
-    <row r="48" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="54">
-        <v>3</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="36">
-        <v>256</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="I48" s="34"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="54">
-        <v>4</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="34"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="56">
-        <v>5</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="34"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4406,27 +3506,1129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:9" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="41">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="33">
+        <v>256</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="41">
+        <v>2</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="33">
+        <v>256</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="41">
+        <v>3</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="33">
+        <v>256</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="41">
+        <v>4</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="33">
+        <v>256</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="41">
+        <v>5</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="41">
+        <v>6</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="33">
+        <v>256</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="41">
+        <v>7</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="33">
+        <v>256</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="41">
+        <v>8</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="43">
+        <v>9</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="51"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+      <c r="B30" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="41">
+        <v>1</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="33">
+        <v>256</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="41">
+        <v>2</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="33">
+        <v>256</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="41">
+        <v>3</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="33">
+        <v>256</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="41">
+        <v>4</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="33">
+        <v>256</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="41">
+        <v>5</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="43">
+        <v>6</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="51"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="54"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="41">
+        <v>1</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="33">
+        <v>256</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="41">
+        <v>2</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="33">
+        <v>256</v>
+      </c>
+      <c r="G46" s="32"/>
+      <c r="H46" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="41">
+        <v>3</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="43">
+        <v>4</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="51"/>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="30"/>
+      <c r="B52" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="54"/>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="41">
+        <v>1</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="33">
+        <v>256</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="41">
+        <v>2</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="33">
+        <v>256</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="41">
+        <v>3</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="33">
+        <v>256</v>
+      </c>
+      <c r="G57" s="32"/>
+      <c r="H57" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="41">
+        <v>4</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
+      <c r="B59" s="43">
+        <v>5</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:H52"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4435,50 +4637,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="A1" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -1218,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,12 +1360,48 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1375,41 +1411,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3077,37 +3080,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="10" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.45">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3136,18 +3139,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
@@ -3192,10 +3195,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
@@ -3218,10 +3221,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
@@ -3244,10 +3247,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
@@ -3303,10 +3306,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="48"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
@@ -3340,18 +3343,18 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
     </row>
     <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
@@ -3396,10 +3399,10 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="48"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
@@ -3433,10 +3436,10 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="48"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
@@ -3459,10 +3462,10 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="47"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48" s="24"/>
@@ -3486,17 +3489,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,27 +3518,27 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="34" t="s">
         <v>70</v>
       </c>
@@ -3546,11 +3549,11 @@
     </row>
     <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="36"/>
       <c r="H3" s="37"/>
       <c r="I3" s="31"/>
@@ -3568,19 +3571,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="51"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -3942,33 +3945,33 @@
       <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50" t="s">
+      <c r="C29" s="62"/>
+      <c r="D29" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50" t="s">
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="51"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -4178,19 +4181,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="62"/>
+      <c r="D41" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50" t="s">
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="51"/>
+      <c r="H41" s="63"/>
       <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -4356,19 +4359,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50" t="s">
+      <c r="C51" s="62"/>
+      <c r="D51" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50" t="s">
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="51"/>
+      <c r="H51" s="63"/>
       <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -4568,6 +4571,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:H6"/>
@@ -4578,24 +4599,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:H52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4607,28 +4610,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4641,46 +4644,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
@@ -1274,95 +1274,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,1321 +1385,1035 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387295</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>15902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>263718</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175922</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3855720" y="236220"/>
-          <a:ext cx="1013460" cy="571500"/>
+          <a:off x="387295" y="496293"/>
+          <a:ext cx="4688619" cy="5444325"/>
+          <a:chOff x="22860" y="488011"/>
+          <a:chExt cx="4688619" cy="5444325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1877833" y="488011"/>
+            <a:ext cx="1047253" cy="594692"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>アカウント登録画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1870213" y="1646914"/>
+            <a:ext cx="1047253" cy="606287"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ログイン　画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="312420" y="632791"/>
+            <a:ext cx="786517" cy="301156"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>登録失敗</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22860" y="1788050"/>
+            <a:ext cx="1060837" cy="308775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ログイン失敗</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1870213" y="2863132"/>
+            <a:ext cx="1047253" cy="606287"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>メイン画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="144780" y="4151906"/>
+            <a:ext cx="1030357" cy="594691"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>投稿画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1862593" y="4144286"/>
+            <a:ext cx="1047253" cy="594691"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>マイページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3681123" y="4144286"/>
+            <a:ext cx="1030356" cy="594691"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>各災害　ページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1847353" y="5337644"/>
+            <a:ext cx="1047253" cy="594692"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>利用規約</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="121920" y="5337644"/>
+            <a:ext cx="1030357" cy="594692"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>アカウント管理</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3665883" y="5330024"/>
+            <a:ext cx="1030356" cy="594692"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ガイドライン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="U ターン矢印 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="1456250" y="577960"/>
+            <a:ext cx="296186" cy="432352"/>
+          </a:xfrm>
+          <a:prstGeom prst="uturnArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+              <a:gd name="adj2" fmla="val 11510"/>
+              <a:gd name="adj3" fmla="val 19782"/>
+              <a:gd name="adj4" fmla="val 0"/>
+              <a:gd name="adj5" fmla="val 100000"/>
+            </a:avLst>
+          </a:prstGeom>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>アカウント登録画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3848100" y="1348740"/>
-          <a:ext cx="1013460" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="U ターン矢印 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="1462875" y="1719304"/>
+            <a:ext cx="296185" cy="432352"/>
+          </a:xfrm>
+          <a:prstGeom prst="uturnArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+              <a:gd name="adj2" fmla="val 11510"/>
+              <a:gd name="adj3" fmla="val 19782"/>
+              <a:gd name="adj4" fmla="val 0"/>
+              <a:gd name="adj5" fmla="val 100000"/>
+            </a:avLst>
+          </a:prstGeom>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>ログイン　画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2324100" y="381000"/>
-          <a:ext cx="769620" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="2"/>
+            <a:endCxn id="3" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2393841" y="1082703"/>
+            <a:ext cx="7620" cy="564211"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>登録失敗</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2034540" y="1478280"/>
-          <a:ext cx="1043940" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="2"/>
+            <a:endCxn id="6" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2393841" y="2253201"/>
+            <a:ext cx="0" cy="609931"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログイン失敗</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3848100" y="2506980"/>
-          <a:ext cx="1013460" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="直線コネクタ 29"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="2"/>
+            <a:endCxn id="7" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="650848" y="3469419"/>
+            <a:ext cx="1742993" cy="682487"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>メイン画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2156460" y="3726180"/>
-          <a:ext cx="1013460" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="2"/>
+            <a:endCxn id="8" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2386221" y="3469419"/>
+            <a:ext cx="7620" cy="674867"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>投稿画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3840480" y="3718560"/>
-          <a:ext cx="1013460" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="直線コネクタ 35"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="2"/>
+            <a:endCxn id="9" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2393841" y="3469419"/>
+            <a:ext cx="1811571" cy="674867"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>マイページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5608320" y="3718560"/>
-          <a:ext cx="1013460" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="39" name="直線コネクタ 38"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="2"/>
+            <a:endCxn id="11" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="627988" y="4738977"/>
+            <a:ext cx="1758233" cy="598667"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>各災害　ページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3825240" y="4853940"/>
-          <a:ext cx="1013460" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="2"/>
+            <a:endCxn id="10" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2370981" y="4738977"/>
+            <a:ext cx="15240" cy="598667"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>利用規約</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="4853940"/>
-          <a:ext cx="1013460" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="2"/>
+            <a:endCxn id="12" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2386221" y="4738977"/>
+            <a:ext cx="1803951" cy="591047"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>アカウント管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5593080" y="4846320"/>
-          <a:ext cx="1013460" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ガイドライン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>13254</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>445606</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>221642</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="U ターン矢印 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3439935" y="320371"/>
-          <a:ext cx="284590" cy="432352"/>
-        </a:xfrm>
-        <a:prstGeom prst="uturnArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-            <a:gd name="adj2" fmla="val 11510"/>
-            <a:gd name="adj3" fmla="val 19782"/>
-            <a:gd name="adj4" fmla="val 0"/>
-            <a:gd name="adj5" fmla="val 100000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106017</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>452231</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>162007</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="U ターン矢印 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3446560" y="1403736"/>
-          <a:ext cx="284590" cy="432352"/>
-        </a:xfrm>
-        <a:prstGeom prst="uturnArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-            <a:gd name="adj2" fmla="val 11510"/>
-            <a:gd name="adj3" fmla="val 19782"/>
-            <a:gd name="adj4" fmla="val 0"/>
-            <a:gd name="adj5" fmla="val 100000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>339091</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2339175" y="817659"/>
-          <a:ext cx="7620" cy="547646"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2339175" y="1946744"/>
-          <a:ext cx="0" cy="593366"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>650848</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="650848" y="3121550"/>
-          <a:ext cx="1688327" cy="657639"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2331555" y="3121550"/>
-          <a:ext cx="7620" cy="650019"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>80673</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2339175" y="3121550"/>
-          <a:ext cx="1756907" cy="650019"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>627988</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="627988" y="4349695"/>
-          <a:ext cx="1703567" cy="573819"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>308611</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線コネクタ 41"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2316315" y="4349695"/>
-          <a:ext cx="15240" cy="573819"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>65433</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線コネクタ 44"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2331555" y="4349695"/>
-          <a:ext cx="1749287" cy="566199"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3034,28 +2748,28 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.8984375" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="31" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
@@ -3064,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -3075,7 +2789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>2</v>
       </c>
@@ -3086,7 +2800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="11">
         <v>3</v>
       </c>
@@ -3097,13 +2811,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="30" t="s">
+    <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
       <c r="C10" s="14" t="s">
         <v>13</v>
@@ -3112,7 +2826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16">
         <v>1</v>
       </c>
@@ -3123,13 +2837,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="30" t="s">
+    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="14" t="s">
         <v>13</v>
@@ -3138,7 +2852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7">
         <v>1</v>
       </c>
@@ -3149,13 +2863,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="30" t="s">
+    <row r="17" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -3164,7 +2878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <v>1</v>
       </c>
@@ -3175,7 +2889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
         <v>2</v>
       </c>
@@ -3186,7 +2900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B21" s="18">
         <v>3</v>
       </c>
@@ -3197,7 +2911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="7">
         <v>4</v>
       </c>
@@ -3208,13 +2922,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="30" t="s">
+    <row r="24" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -3223,7 +2937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <v>1</v>
       </c>
@@ -3234,7 +2948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="7">
         <v>2</v>
       </c>
@@ -3245,21 +2959,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C31" s="30" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="30"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -3268,7 +2982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B33" s="5">
         <v>1</v>
       </c>
@@ -3279,7 +2993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="5">
         <v>2</v>
       </c>
@@ -3290,7 +3004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="7">
         <v>3</v>
       </c>
@@ -3301,13 +3015,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C37" s="30" t="s">
+    <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
         <v>27</v>
@@ -3316,7 +3030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="5">
         <v>1</v>
       </c>
@@ -3327,7 +3041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="7">
         <v>2</v>
       </c>
@@ -3338,13 +3052,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C42" s="30" t="s">
+    <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
         <v>27</v>
@@ -3353,7 +3067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="7">
         <v>1</v>
       </c>
@@ -3364,13 +3078,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="30" t="s">
+    <row r="47" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C47" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" s="24"/>
       <c r="C48" s="25" t="s">
         <v>27</v>
@@ -3379,7 +3093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="27">
         <v>1</v>
       </c>
@@ -3392,17 +3106,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3414,989 +3128,989 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="45" t="s">
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="48" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="51" t="s">
+      <c r="H6" s="54"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="54">
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="41">
         <v>1</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="33">
         <v>256</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="54">
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="41">
         <v>2</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="33">
         <v>256</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="54">
+      <c r="G10" s="32"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="41">
         <v>3</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="33">
         <v>256</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="55" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="54">
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="41">
         <v>4</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="33">
         <v>256</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="55" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="54">
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" s="41">
         <v>5</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="54">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="41">
         <v>6</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="33">
         <v>256</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="55" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="54">
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="41">
         <v>7</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="33">
         <v>256</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="55" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="54">
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="41">
         <v>8</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="56">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="43">
         <v>9</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="45" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="48" t="s">
+      <c r="H20" s="51"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49" t="s">
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="57" t="s">
+      <c r="H21" s="54"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="54">
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="41">
         <v>1</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="33">
         <v>256</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="54">
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="41">
         <v>2</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="33">
         <v>256</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="55" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="54">
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="41">
         <v>3</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="33">
         <v>256</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="54">
+      <c r="G26" s="32"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="41">
         <v>4</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="33">
         <v>256</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="55" t="s">
+      <c r="G27" s="32"/>
+      <c r="H27" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="54">
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="41">
         <v>5</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="56">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="43">
         <v>6</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="45" t="s">
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46" t="s">
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="34"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="48" t="s">
+      <c r="H32" s="51"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="C33" s="53"/>
+      <c r="D33" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="34"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="57" t="s">
+      <c r="H33" s="54"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="34"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="54">
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="41">
         <v>1</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="33">
         <v>256</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="55" t="s">
+      <c r="H36" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="I36" s="34"/>
-    </row>
-    <row r="37" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="54">
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="41">
         <v>2</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="33">
         <v>256</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="55" t="s">
+      <c r="G37" s="32"/>
+      <c r="H37" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="54">
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="30"/>
+      <c r="B38" s="41">
         <v>3</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="56">
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="43">
         <v>4</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="45" t="s">
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="30"/>
+      <c r="B42" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46" t="s">
+      <c r="C42" s="50"/>
+      <c r="D42" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="47"/>
-      <c r="I42" s="34"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="48" t="s">
+      <c r="H42" s="51"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49" t="s">
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="34"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="57" t="s">
+      <c r="H43" s="54"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="34"/>
-    </row>
-    <row r="46" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="54">
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="30"/>
+      <c r="B46" s="41">
         <v>1</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="33">
         <v>256</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="55" t="s">
+      <c r="H46" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="I46" s="34"/>
-    </row>
-    <row r="47" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="54">
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="30"/>
+      <c r="B47" s="41">
         <v>2</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="33">
         <v>256</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="32"/>
+      <c r="H47" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="34"/>
-    </row>
-    <row r="48" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="54">
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="30"/>
+      <c r="B48" s="41">
         <v>3</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="33">
         <v>256</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="55" t="s">
+      <c r="G48" s="32"/>
+      <c r="H48" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="I48" s="34"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="54">
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="30"/>
+      <c r="B49" s="41">
         <v>4</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="34"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="56">
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="43">
         <v>5</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="34"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4406,27 +4120,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4443,42 +4159,42 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル定義!$A$1:$H$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$I$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$D$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$G$3:$L$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="132">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -918,12 +918,142 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>共通機能</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページ機能</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページタブ</t>
+  </si>
+  <si>
+    <t>登録ページ機能</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面機能</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各災害タイムライン機能</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント管理画面機能</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用規約画面機能</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイドライン画面機能</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,8 +1116,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="HGP創英角ｺﾞｼｯｸUB"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,8 +1156,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1204,13 +1360,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1343,6 +1523,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1358,14 +1547,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3085,9 +3289,9 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A10" s="39" t="s">
         <v>115</v>
       </c>
@@ -3100,7 +3304,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A15" s="41" t="s">
         <v>114</v>
       </c>
@@ -3126,33 +3330,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D49"/>
+  <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.8984375" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.69921875" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+    <col min="9" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="108.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
-    </row>
-    <row r="3" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L1" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
@@ -3160,8 +3375,18 @@
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="H4" s="57"/>
+      <c r="I4" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -3171,8 +3396,20 @@
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>2</v>
       </c>
@@ -3182,8 +3419,18 @@
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="11">
         <v>3</v>
       </c>
@@ -3193,15 +3440,51 @@
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="42" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
       <c r="C10" s="37" t="s">
         <v>13</v>
@@ -3209,8 +3492,20 @@
       <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="14">
         <v>1</v>
       </c>
@@ -3220,15 +3515,47 @@
       <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="55"/>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="55"/>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="56"/>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="37" t="s">
         <v>13</v>
@@ -3236,8 +3563,20 @@
       <c r="D14" s="38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7">
         <v>1</v>
       </c>
@@ -3247,15 +3586,49 @@
       <c r="D15" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="56"/>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="55"/>
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="37" t="s">
         <v>13</v>
@@ -3263,8 +3636,18 @@
       <c r="D18" s="38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="56"/>
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <v>1</v>
       </c>
@@ -3274,8 +3657,20 @@
       <c r="D19" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
         <v>2</v>
       </c>
@@ -3285,8 +3680,18 @@
       <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="56"/>
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="16">
         <v>3</v>
       </c>
@@ -3296,8 +3701,20 @@
       <c r="D21" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="7">
         <v>4</v>
       </c>
@@ -3307,15 +3724,28 @@
       <c r="D22" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H22" s="7">
+        <v>18</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -3324,7 +3754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <v>1</v>
       </c>
@@ -3335,7 +3765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="7">
         <v>2</v>
       </c>
@@ -3346,21 +3776,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
     </row>
-    <row r="31" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="42" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -3369,7 +3801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5">
         <v>1</v>
       </c>
@@ -3380,7 +3812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="5">
         <v>2</v>
       </c>
@@ -3391,7 +3823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="7">
         <v>3</v>
       </c>
@@ -3402,14 +3834,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="42" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
         <v>27</v>
@@ -3418,7 +3851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="5">
         <v>1</v>
       </c>
@@ -3429,7 +3862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="7">
         <v>2</v>
       </c>
@@ -3440,14 +3873,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
         <v>27</v>
@@ -3456,7 +3890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="7">
         <v>1</v>
       </c>
@@ -3467,14 +3901,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
         <v>27</v>
@@ -3483,7 +3919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="7">
         <v>1</v>
       </c>
@@ -3494,8 +3930,16 @@
         <v>49</v>
       </c>
     </row>
+    <row r="50" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B47:D47"/>
@@ -3510,7 +3954,11 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="7" min="2" max="22" man="1"/>
+    <brk id="11" min="2" max="22" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -3522,25 +3970,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3551,41 +3999,41 @@
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -3596,7 +4044,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="28" t="s">
         <v>75</v>
@@ -3621,7 +4069,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="31">
         <v>1</v>
@@ -3646,7 +4094,7 @@
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="31">
         <v>2</v>
@@ -3667,7 +4115,7 @@
       <c r="H8" s="32"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="31">
         <v>3</v>
@@ -3690,7 +4138,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="31">
         <v>4</v>
@@ -3713,7 +4161,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="31">
         <v>5</v>
@@ -3732,7 +4180,7 @@
       <c r="H11" s="32"/>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="31">
         <v>6</v>
@@ -3755,7 +4203,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="31">
         <v>7</v>
@@ -3778,7 +4226,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="31">
         <v>8</v>
@@ -3797,7 +4245,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="33">
         <v>9</v>
@@ -3816,7 +4264,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -3827,7 +4275,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -3838,7 +4286,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -3849,7 +4297,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -3860,7 +4308,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -3871,7 +4319,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -3882,7 +4330,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -3893,7 +4341,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -3904,7 +4352,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -3915,7 +4363,7 @@
       <c r="H24" s="22"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -3926,7 +4374,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -3937,7 +4385,7 @@
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -3948,54 +4396,54 @@
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="47" t="s">
+    <row r="28" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50" t="s">
+      <c r="C29" s="45"/>
+      <c r="D29" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="51"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45" t="s">
+      <c r="C30" s="48"/>
+      <c r="D30" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45" t="s">
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="46"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -4006,7 +4454,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="34" t="s">
         <v>75</v>
@@ -4031,7 +4479,7 @@
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="31">
         <v>1</v>
@@ -4056,7 +4504,7 @@
       </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="31">
         <v>2</v>
@@ -4079,7 +4527,7 @@
       </c>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
       <c r="B35" s="31">
         <v>3</v>
@@ -4100,7 +4548,7 @@
       <c r="H35" s="32"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="31">
         <v>4</v>
@@ -4123,7 +4571,7 @@
       </c>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
       <c r="B37" s="31">
         <v>5</v>
@@ -4142,7 +4590,7 @@
       <c r="H37" s="32"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="33">
         <v>6</v>
@@ -4161,7 +4609,7 @@
       <c r="H38" s="27"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -4172,7 +4620,7 @@
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -4183,41 +4631,41 @@
       <c r="H40" s="22"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="45"/>
+      <c r="D41" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="51"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45" t="s">
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="46"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -4228,7 +4676,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="34" t="s">
         <v>75</v>
@@ -4253,7 +4701,7 @@
       </c>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
       <c r="B45" s="31">
         <v>1</v>
@@ -4278,7 +4726,7 @@
       </c>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
       <c r="B46" s="31">
         <v>2</v>
@@ -4301,7 +4749,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
       <c r="B47" s="31">
         <v>3</v>
@@ -4320,7 +4768,7 @@
       <c r="H47" s="32"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="33">
         <v>4</v>
@@ -4339,7 +4787,7 @@
       <c r="H48" s="27"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -4350,7 +4798,7 @@
       <c r="H49" s="22"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -4361,41 +4809,41 @@
       <c r="H50" s="22"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50" t="s">
+      <c r="C51" s="45"/>
+      <c r="D51" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50" t="s">
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H51" s="51"/>
+      <c r="H51" s="46"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45" t="s">
+      <c r="C52" s="48"/>
+      <c r="D52" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45" t="s">
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="46"/>
+      <c r="H52" s="49"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -4406,7 +4854,7 @@
       <c r="H53" s="22"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
       <c r="B54" s="34" t="s">
         <v>75</v>
@@ -4431,7 +4879,7 @@
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
       <c r="B55" s="31">
         <v>1</v>
@@ -4456,7 +4904,7 @@
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
       <c r="B56" s="31">
         <v>2</v>
@@ -4479,7 +4927,7 @@
       </c>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
       <c r="B57" s="31">
         <v>3</v>
@@ -4502,7 +4950,7 @@
       </c>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
       <c r="B58" s="31">
         <v>4</v>
@@ -4521,7 +4969,7 @@
       <c r="H58" s="32"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="33">
         <v>5</v>
@@ -4540,7 +4988,7 @@
       <c r="H59" s="27"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -4551,7 +4999,7 @@
       <c r="H60" s="22"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -4562,7 +5010,7 @@
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -4575,24 +5023,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -4601,6 +5031,24 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:H52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4616,9 +5064,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>50</v>
       </c>
@@ -4646,13 +5094,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>68</v>
       </c>
@@ -4665,7 +5113,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -4676,7 +5124,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="テーブル定義" sheetId="5" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId4"/>
     <sheet name="ER図" sheetId="4" r:id="rId5"/>
+    <sheet name="IFDAM図" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル定義!$A$1:$H$59</definedName>
@@ -1508,6 +1509,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,12 +1533,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1531,45 +1571,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3020,6 +3021,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>324948</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="7868748" cy="3381847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3292,30 +3336,30 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3332,7 +3376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -3347,25 +3391,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="L1" s="52" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="L1" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
@@ -3375,14 +3419,14 @@
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58" t="s">
+      <c r="H4" s="41"/>
+      <c r="I4" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="43" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3399,7 +3443,7 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="47" t="s">
         <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -3422,7 +3466,7 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3443,7 +3487,7 @@
       <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="56"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3466,11 +3510,11 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="H9" s="5">
         <v>5</v>
       </c>
@@ -3495,7 +3539,7 @@
       <c r="H10" s="5">
         <v>6</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="47" t="s">
         <v>125</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3518,7 +3562,7 @@
       <c r="H11" s="5">
         <v>7</v>
       </c>
-      <c r="I11" s="55"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3530,7 +3574,7 @@
       <c r="H12" s="5">
         <v>8</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
@@ -3539,15 +3583,15 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="H13" s="5">
         <v>9</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3566,7 +3610,7 @@
       <c r="H14" s="5">
         <v>10</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="47" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -3589,7 +3633,7 @@
       <c r="H15" s="5">
         <v>11</v>
       </c>
-      <c r="I15" s="56"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1" t="s">
         <v>24</v>
       </c>
@@ -3601,7 +3645,7 @@
       <c r="H16" s="5">
         <v>12</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="47" t="s">
         <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3612,15 +3656,15 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
       <c r="H17" s="5">
         <v>13</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3639,7 +3683,7 @@
       <c r="H18" s="5">
         <v>14</v>
       </c>
-      <c r="I18" s="56"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="1" t="s">
         <v>36</v>
       </c>
@@ -3660,7 +3704,7 @@
       <c r="H19" s="5">
         <v>15</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="47" t="s">
         <v>128</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -3683,7 +3727,7 @@
       <c r="H20" s="5">
         <v>16</v>
       </c>
-      <c r="I20" s="56"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="1" t="s">
         <v>42</v>
       </c>
@@ -3739,11 +3783,11 @@
     </row>
     <row r="23" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
     </row>
     <row r="25" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="2"/>
@@ -3778,19 +3822,19 @@
     </row>
     <row r="28" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
@@ -3836,11 +3880,11 @@
     </row>
     <row r="36" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
     </row>
     <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
@@ -3875,11 +3919,11 @@
     </row>
     <row r="41" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
     </row>
     <row r="43" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2"/>
@@ -3904,11 +3948,11 @@
     <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
     </row>
     <row r="48" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="2"/>
@@ -3935,11 +3979,6 @@
     <row r="52" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B47:D47"/>
@@ -3951,6 +3990,11 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3966,7 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3976,17 +4020,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
@@ -4001,36 +4045,36 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4397,50 +4441,50 @@
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45" t="s">
+      <c r="C29" s="58"/>
+      <c r="D29" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45" t="s">
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="46"/>
+      <c r="H29" s="59"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48" t="s">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4633,36 +4677,36 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45" t="s">
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="46"/>
+      <c r="H41" s="59"/>
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48" t="s">
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="49"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4811,36 +4855,36 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45" t="s">
+      <c r="C51" s="58"/>
+      <c r="D51" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45" t="s">
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H51" s="46"/>
+      <c r="H51" s="59"/>
       <c r="I51" s="23"/>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48" t="s">
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="49"/>
+      <c r="H52" s="54"/>
       <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5023,6 +5067,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -5031,24 +5093,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:H52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5067,17 +5111,17 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5101,39 +5145,39 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5144,4 +5188,20 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>